--- a/backend/hct_mis_api/apps/payment/tests/test_file/pp_payment_list_valid.xlsx
+++ b/backend/hct_mis_api/apps/payment/tests/test_file/pp_payment_list_valid.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>payment_id</t>
   </si>
@@ -22,25 +22,28 @@
     <t>household_size</t>
   </si>
   <si>
-    <t>admin2</t>
-  </si>
-  <si>
-    <t>collector</t>
+    <t>admin_level_2</t>
+  </si>
+  <si>
+    <t>collector_name</t>
   </si>
   <si>
     <t>payment_channel</t>
   </si>
   <si>
-    <t>fsp</t>
+    <t>fsp_name</t>
   </si>
   <si>
     <t>currency</t>
   </si>
   <si>
-    <t>entitlement</t>
-  </si>
-  <si>
-    <t>entitlement_usd</t>
+    <t>entitlement_quantity</t>
+  </si>
+  <si>
+    <t>entitlement_quantity_usd</t>
+  </si>
+  <si>
+    <t>delivered_quantity</t>
   </si>
   <si>
     <t>714a72db-79e3-42d1-a9e8-a949aebbf1ae</t>
@@ -104,7 +107,7 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="15"/>
+      <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -129,7 +132,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -197,13 +200,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -222,22 +240,16 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1355,7 +1367,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1364,12 +1376,14 @@
     <col min="1" max="1" width="38" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1719" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="1" customWidth="1"/>
     <col min="7" max="7" width="15" style="1" customWidth="1"/>
-    <col min="8" max="10" width="8.85156" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85156" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25" style="1" customWidth="1"/>
+    <col min="10" max="11" width="26.5" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
@@ -1400,157 +1414,78 @@
       <c r="I1" t="s" s="4">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="5">
+      <c r="J1" t="s" s="6">
         <v>9</v>
+      </c>
+      <c r="K1" t="s" s="5">
+        <v>10</v>
       </c>
     </row>
     <row r="2" ht="13.55" customHeight="1">
       <c r="A2" t="s" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="C2" s="6">
+        <v>12</v>
+      </c>
+      <c r="C2" s="7">
         <v>4</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s" s="5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="I2" s="7">
+        <v>17</v>
+      </c>
+      <c r="I2" s="8">
         <v>99</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="9">
         <v>3637</v>
       </c>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="C3" s="6">
+        <v>19</v>
+      </c>
+      <c r="C3" s="7">
         <v>4</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s" s="5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="I3" s="7">
+        <v>24</v>
+      </c>
+      <c r="I3" s="8">
         <v>11.11</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="9">
         <v>3589</v>
       </c>
-    </row>
-    <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="12"/>
-    </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="12"/>
-    </row>
-    <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="12"/>
-    </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="12"/>
-    </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="12"/>
-    </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="12"/>
-    </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="12"/>
+      <c r="K3" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/hct_mis_api/apps/payment/tests/test_file/pp_payment_list_valid.xlsx
+++ b/backend/hct_mis_api/apps/payment/tests/test_file/pp_payment_list_valid.xlsx
@@ -58,7 +58,7 @@
     <t>Agata Kowalska</t>
   </si>
   <si>
-    <t>Pre-paid card</t>
+    <t>deposit to card</t>
   </si>
   <si>
     <t>Roberts LLC</t>
@@ -79,7 +79,7 @@
     <t>Jan Romaniak</t>
   </si>
   <si>
-    <t>Cash by FSP</t>
+    <t>Referral</t>
   </si>
   <si>
     <t>White-Mcgrath</t>
@@ -107,7 +107,7 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="15"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -132,7 +132,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -215,13 +215,109 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -253,6 +349,36 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1367,7 +1493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1487,6 +1613,97 @@
       </c>
       <c r="K3" s="10"/>
     </row>
+    <row r="4" ht="13.55" customHeight="1">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="14"/>
+    </row>
+    <row r="5" ht="13.55" customHeight="1">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="17"/>
+    </row>
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="17"/>
+    </row>
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="17"/>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="17"/>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="17"/>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/backend/hct_mis_api/apps/payment/tests/test_file/pp_payment_list_valid.xlsx
+++ b/backend/hct_mis_api/apps/payment/tests/test_file/pp_payment_list_valid.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>payment_id</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>entitlement_quantity_usd</t>
-  </si>
-  <si>
-    <t>delivered_quantity</t>
   </si>
   <si>
     <t>714a72db-79e3-42d1-a9e8-a949aebbf1ae</t>
@@ -107,7 +104,7 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="15"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -132,7 +129,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -215,13 +212,109 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -252,7 +345,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1367,7 +1487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1382,8 +1502,8 @@
     <col min="7" max="7" width="15" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.85156" style="1" customWidth="1"/>
     <col min="9" max="9" width="25" style="1" customWidth="1"/>
-    <col min="10" max="11" width="26.5" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
@@ -1417,34 +1537,31 @@
       <c r="J1" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="5">
-        <v>10</v>
-      </c>
     </row>
     <row r="2" ht="13.55" customHeight="1">
       <c r="A2" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>11</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>12</v>
       </c>
       <c r="C2" s="7">
         <v>4</v>
       </c>
       <c r="D2" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s" s="3">
         <v>13</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="F2" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="F2" t="s" s="4">
+      <c r="G2" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="G2" t="s" s="5">
+      <c r="H2" t="s" s="3">
         <v>16</v>
-      </c>
-      <c r="H2" t="s" s="3">
-        <v>17</v>
       </c>
       <c r="I2" s="8">
         <v>99</v>
@@ -1452,32 +1569,31 @@
       <c r="J2" s="9">
         <v>3637</v>
       </c>
-      <c r="K2" s="10"/>
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s" s="2">
         <v>18</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>19</v>
       </c>
       <c r="C3" s="7">
         <v>4</v>
       </c>
       <c r="D3" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s" s="3">
         <v>20</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="F3" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="G3" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="G3" t="s" s="5">
+      <c r="H3" t="s" s="3">
         <v>23</v>
-      </c>
-      <c r="H3" t="s" s="3">
-        <v>24</v>
       </c>
       <c r="I3" s="8">
         <v>11.11</v>
@@ -1485,7 +1601,90 @@
       <c r="J3" s="9">
         <v>3589</v>
       </c>
-      <c r="K3" s="10"/>
+    </row>
+    <row r="4" ht="13.55" customHeight="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" ht="13.55" customHeight="1">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/hct_mis_api/apps/payment/tests/test_file/pp_payment_list_valid.xlsx
+++ b/backend/hct_mis_api/apps/payment/tests/test_file/pp_payment_list_valid.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>payment_id</t>
   </si>
@@ -43,6 +43,9 @@
     <t>entitlement_quantity_usd</t>
   </si>
   <si>
+    <t>status</t>
+  </si>
+  <si>
     <t>714a72db-79e3-42d1-a9e8-a949aebbf1ae</t>
   </si>
   <si>
@@ -62,6 +65,9 @@
   </si>
   <si>
     <t>SBD</t>
+  </si>
+  <si>
+    <t>Pending</t>
   </si>
   <si>
     <t>a15e9214-a0e0-4af5-8dbf-9657184e9e3a</t>
@@ -129,7 +135,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -256,6 +262,19 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -281,6 +300,17 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -308,13 +338,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -373,6 +416,15 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1487,7 +1539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1502,8 +1554,8 @@
     <col min="7" max="7" width="15" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.85156" style="1" customWidth="1"/>
     <col min="9" max="9" width="25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="26.5" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="10" max="11" width="26.5" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
@@ -1537,69 +1589,78 @@
       <c r="J1" t="s" s="6">
         <v>9</v>
       </c>
+      <c r="K1" t="s" s="6">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" ht="13.55" customHeight="1">
       <c r="A2" t="s" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="7">
         <v>4</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s" s="5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="8">
         <v>99</v>
       </c>
       <c r="J2" s="9">
         <v>3637</v>
+      </c>
+      <c r="K2" t="s" s="6">
+        <v>18</v>
       </c>
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" t="s" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" s="7">
         <v>4</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s" s="4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s" s="5">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I3" s="8">
         <v>11.11</v>
       </c>
       <c r="J3" s="9">
         <v>3589</v>
+      </c>
+      <c r="K3" t="s" s="6">
+        <v>18</v>
       </c>
     </row>
     <row r="4" ht="13.55" customHeight="1">
@@ -1613,78 +1674,85 @@
       <c r="H4" s="11"/>
       <c r="I4" s="12"/>
       <c r="J4" s="13"/>
+      <c r="K4" s="14"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="16"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="18"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="18"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="16"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="18"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="19"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/hct_mis_api/apps/payment/tests/test_file/pp_payment_list_valid.xlsx
+++ b/backend/hct_mis_api/apps/payment/tests/test_file/pp_payment_list_valid.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>payment_id</t>
   </si>
@@ -46,6 +46,9 @@
     <t>status</t>
   </si>
   <si>
+    <t>transaction_status_blockchain</t>
+  </si>
+  <si>
     <t>714a72db-79e3-42d1-a9e8-a949aebbf1ae</t>
   </si>
   <si>
@@ -70,6 +73,9 @@
     <t>Pending</t>
   </si>
   <si>
+    <t>test_text_link_text_text</t>
+  </si>
+  <si>
     <t>a15e9214-a0e0-4af5-8dbf-9657184e9e3a</t>
   </si>
   <si>
@@ -89,6 +95,9 @@
   </si>
   <si>
     <t>DOP</t>
+  </si>
+  <si>
+    <t>test_text_link_test222</t>
   </si>
 </sst>
 </file>
@@ -698,7 +707,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -728,7 +736,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -754,7 +761,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -780,7 +786,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -806,7 +811,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -832,7 +836,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -858,7 +861,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -884,7 +886,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -910,7 +911,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -936,7 +936,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -993,7 +992,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1019,7 +1017,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1045,7 +1042,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1071,7 +1067,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1097,7 +1092,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1123,7 +1117,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1149,7 +1142,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1175,7 +1167,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1201,7 +1192,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1227,7 +1217,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1275,7 +1264,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1305,7 +1293,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1331,7 +1318,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1357,7 +1343,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1383,7 +1368,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1409,7 +1393,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1435,7 +1418,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1461,7 +1443,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1487,7 +1468,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1513,7 +1493,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1539,7 +1518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1554,8 +1533,8 @@
     <col min="7" max="7" width="15" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.85156" style="1" customWidth="1"/>
     <col min="9" max="9" width="25" style="1" customWidth="1"/>
-    <col min="10" max="11" width="26.5" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="10" max="12" width="26.5" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
@@ -1592,31 +1571,34 @@
       <c r="K1" t="s" s="6">
         <v>10</v>
       </c>
+      <c r="L1" t="s" s="6">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" ht="13.55" customHeight="1">
       <c r="A2" t="s" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="7">
         <v>4</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" s="8">
         <v>99</v>
@@ -1625,33 +1607,36 @@
         <v>3637</v>
       </c>
       <c r="K2" t="s" s="6">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="L2" t="s" s="6">
+        <v>20</v>
       </c>
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" t="s" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3" s="7">
         <v>4</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s" s="3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s" s="5">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s" s="3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I3" s="8">
         <v>11.11</v>
@@ -1660,7 +1645,10 @@
         <v>3589</v>
       </c>
       <c r="K3" t="s" s="6">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="L3" t="s" s="6">
+        <v>28</v>
       </c>
     </row>
     <row r="4" ht="13.55" customHeight="1">
@@ -1675,6 +1663,7 @@
       <c r="I4" s="12"/>
       <c r="J4" s="13"/>
       <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" s="15"/>
@@ -1688,6 +1677,7 @@
       <c r="I5" s="16"/>
       <c r="J5" s="17"/>
       <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" s="15"/>
@@ -1701,6 +1691,7 @@
       <c r="I6" s="16"/>
       <c r="J6" s="17"/>
       <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" s="15"/>
@@ -1714,6 +1705,7 @@
       <c r="I7" s="16"/>
       <c r="J7" s="17"/>
       <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" s="15"/>
@@ -1727,6 +1719,7 @@
       <c r="I8" s="16"/>
       <c r="J8" s="17"/>
       <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" s="15"/>
@@ -1740,6 +1733,7 @@
       <c r="I9" s="16"/>
       <c r="J9" s="17"/>
       <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" s="19"/>
@@ -1753,6 +1747,7 @@
       <c r="I10" s="20"/>
       <c r="J10" s="21"/>
       <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/hct_mis_api/apps/payment/tests/test_file/pp_payment_list_valid.xlsx
+++ b/backend/hct_mis_api/apps/payment/tests/test_file/pp_payment_list_valid.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>payment_id</t>
   </si>
@@ -46,9 +46,6 @@
     <t>status</t>
   </si>
   <si>
-    <t>transaction_status_blockchain</t>
-  </si>
-  <si>
     <t>714a72db-79e3-42d1-a9e8-a949aebbf1ae</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
     <t>Pending</t>
   </si>
   <si>
-    <t>test_text_link_text_text</t>
-  </si>
-  <si>
     <t>a15e9214-a0e0-4af5-8dbf-9657184e9e3a</t>
   </si>
   <si>
@@ -95,9 +89,6 @@
   </si>
   <si>
     <t>DOP</t>
-  </si>
-  <si>
-    <t>test_text_link_test222</t>
   </si>
 </sst>
 </file>
@@ -1518,7 +1509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1533,8 +1524,8 @@
     <col min="7" max="7" width="15" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.85156" style="1" customWidth="1"/>
     <col min="9" max="9" width="25" style="1" customWidth="1"/>
-    <col min="10" max="12" width="26.5" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="10" max="11" width="26.5" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
@@ -1571,34 +1562,31 @@
       <c r="K1" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="6">
-        <v>11</v>
-      </c>
     </row>
     <row r="2" ht="13.55" customHeight="1">
       <c r="A2" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>12</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>13</v>
       </c>
       <c r="C2" s="7">
         <v>4</v>
       </c>
       <c r="D2" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s" s="3">
         <v>14</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="F2" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F2" t="s" s="4">
+      <c r="G2" t="s" s="5">
         <v>16</v>
       </c>
-      <c r="G2" t="s" s="5">
+      <c r="H2" t="s" s="3">
         <v>17</v>
-      </c>
-      <c r="H2" t="s" s="3">
-        <v>18</v>
       </c>
       <c r="I2" s="8">
         <v>99</v>
@@ -1607,36 +1595,33 @@
         <v>3637</v>
       </c>
       <c r="K2" t="s" s="6">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s" s="6">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="7">
         <v>4</v>
       </c>
       <c r="D3" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="G3" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="H3" t="s" s="3">
         <v>25</v>
-      </c>
-      <c r="G3" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="H3" t="s" s="3">
-        <v>27</v>
       </c>
       <c r="I3" s="8">
         <v>11.11</v>
@@ -1645,10 +1630,7 @@
         <v>3589</v>
       </c>
       <c r="K3" t="s" s="6">
-        <v>19</v>
-      </c>
-      <c r="L3" t="s" s="6">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" ht="13.55" customHeight="1">
@@ -1663,7 +1645,6 @@
       <c r="I4" s="12"/>
       <c r="J4" s="13"/>
       <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" s="15"/>
@@ -1677,7 +1658,6 @@
       <c r="I5" s="16"/>
       <c r="J5" s="17"/>
       <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" s="15"/>
@@ -1691,7 +1671,6 @@
       <c r="I6" s="16"/>
       <c r="J6" s="17"/>
       <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" s="15"/>
@@ -1705,7 +1684,6 @@
       <c r="I7" s="16"/>
       <c r="J7" s="17"/>
       <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" s="15"/>
@@ -1719,7 +1697,6 @@
       <c r="I8" s="16"/>
       <c r="J8" s="17"/>
       <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" s="15"/>
@@ -1733,7 +1710,6 @@
       <c r="I9" s="16"/>
       <c r="J9" s="17"/>
       <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" s="19"/>
@@ -1747,7 +1723,6 @@
       <c r="I10" s="20"/>
       <c r="J10" s="21"/>
       <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/hct_mis_api/apps/payment/tests/test_file/pp_payment_list_valid.xlsx
+++ b/backend/hct_mis_api/apps/payment/tests/test_file/pp_payment_list_valid.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>payment_id</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>admin_level_2</t>
+  </si>
+  <si>
+    <t>village</t>
   </si>
   <si>
     <t>collector_name</t>
@@ -698,7 +701,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -728,7 +730,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -754,7 +755,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -780,7 +780,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -806,7 +805,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -832,7 +830,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -858,7 +855,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -884,7 +880,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -910,7 +905,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -936,7 +930,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -993,7 +986,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1019,7 +1011,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1045,7 +1036,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1071,7 +1061,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1097,7 +1086,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1123,7 +1111,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1149,7 +1136,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1175,7 +1161,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1201,7 +1186,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1227,7 +1211,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1275,7 +1258,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1305,7 +1287,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1331,7 +1312,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1357,7 +1337,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1383,7 +1362,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1409,7 +1387,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1435,7 +1412,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1461,7 +1437,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1487,7 +1462,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1513,7 +1487,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1539,7 +1512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1548,14 +1521,14 @@
     <col min="1" max="1" width="38" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1719" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85156" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25" style="1" customWidth="1"/>
-    <col min="10" max="11" width="26.5" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="4" max="5" width="13.1719" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85156" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25" style="1" customWidth="1"/>
+    <col min="11" max="12" width="26.5" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
@@ -1571,96 +1544,101 @@
       <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" t="s" s="3">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="5">
+      <c r="G1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="3">
+      <c r="H1" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="4">
+      <c r="I1" t="s" s="3">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="6">
+      <c r="J1" t="s" s="4">
         <v>9</v>
       </c>
       <c r="K1" t="s" s="6">
         <v>10</v>
+      </c>
+      <c r="L1" t="s" s="6">
+        <v>11</v>
       </c>
     </row>
     <row r="2" ht="13.55" customHeight="1">
       <c r="A2" t="s" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="7">
         <v>4</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s" s="3">
         <v>14</v>
       </c>
-      <c r="F2" t="s" s="4">
+      <c r="E2" s="2"/>
+      <c r="F2" t="s" s="3">
         <v>15</v>
       </c>
-      <c r="G2" t="s" s="5">
+      <c r="G2" t="s" s="4">
         <v>16</v>
       </c>
-      <c r="H2" t="s" s="3">
+      <c r="H2" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="J2" s="8">
         <v>99</v>
       </c>
-      <c r="J2" s="9">
+      <c r="K2" s="9">
         <v>3637</v>
       </c>
-      <c r="K2" t="s" s="6">
-        <v>18</v>
+      <c r="L2" t="s" s="6">
+        <v>19</v>
       </c>
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="7">
         <v>4</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s" s="3">
         <v>22</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="E3" s="2"/>
+      <c r="F3" t="s" s="3">
         <v>23</v>
       </c>
-      <c r="G3" t="s" s="5">
+      <c r="G3" t="s" s="4">
         <v>24</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="5">
         <v>25</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J3" s="8">
         <v>11.11</v>
       </c>
-      <c r="J3" s="9">
+      <c r="K3" s="9">
         <v>3589</v>
       </c>
-      <c r="K3" t="s" s="6">
-        <v>18</v>
+      <c r="L3" t="s" s="6">
+        <v>19</v>
       </c>
     </row>
     <row r="4" ht="13.55" customHeight="1">
@@ -1669,12 +1647,13 @@
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="14"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="14"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" s="15"/>
@@ -1686,8 +1665,9 @@
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="18"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="18"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" s="15"/>
@@ -1699,8 +1679,9 @@
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="18"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="18"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" s="15"/>
@@ -1712,8 +1693,9 @@
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="18"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="18"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" s="15"/>
@@ -1725,8 +1707,9 @@
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="18"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="18"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" s="15"/>
@@ -1738,8 +1721,9 @@
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="18"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" s="19"/>
@@ -1751,8 +1735,9 @@
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="22"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/hct_mis_api/apps/payment/tests/test_file/pp_payment_list_valid.xlsx
+++ b/backend/hct_mis_api/apps/payment/tests/test_file/pp_payment_list_valid.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>payment_id</t>
   </si>
@@ -49,6 +49,9 @@
     <t>status</t>
   </si>
   <si>
+    <t>national_id</t>
+  </si>
+  <si>
     <t>714a72db-79e3-42d1-a9e8-a949aebbf1ae</t>
   </si>
   <si>
@@ -92,6 +95,9 @@
   </si>
   <si>
     <t>DOP</t>
+  </si>
+  <si>
+    <t>321</t>
   </si>
 </sst>
 </file>
@@ -1512,7 +1518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1527,8 +1533,8 @@
     <col min="8" max="8" width="15" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.85156" style="1" customWidth="1"/>
     <col min="10" max="10" width="25" style="1" customWidth="1"/>
-    <col min="11" max="12" width="26.5" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="11" max="13" width="26.5" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
@@ -1568,32 +1574,35 @@
       <c r="L1" t="s" s="6">
         <v>11</v>
       </c>
+      <c r="M1" t="s" s="6">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" ht="13.55" customHeight="1">
       <c r="A2" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="7">
         <v>4</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" s="8">
         <v>99</v>
@@ -1602,34 +1611,35 @@
         <v>3637</v>
       </c>
       <c r="L2" t="s" s="6">
-        <v>19</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="M2" s="6"/>
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="7">
         <v>4</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s" s="5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J3" s="8">
         <v>11.11</v>
@@ -1638,7 +1648,10 @@
         <v>3589</v>
       </c>
       <c r="L3" t="s" s="6">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M3" t="s" s="6">
+        <v>28</v>
       </c>
     </row>
     <row r="4" ht="13.55" customHeight="1">
@@ -1654,6 +1667,7 @@
       <c r="J4" s="12"/>
       <c r="K4" s="13"/>
       <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" s="15"/>
@@ -1668,6 +1682,7 @@
       <c r="J5" s="16"/>
       <c r="K5" s="17"/>
       <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" s="15"/>
@@ -1682,6 +1697,7 @@
       <c r="J6" s="16"/>
       <c r="K6" s="17"/>
       <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" s="15"/>
@@ -1696,6 +1712,7 @@
       <c r="J7" s="16"/>
       <c r="K7" s="17"/>
       <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" s="15"/>
@@ -1710,6 +1727,7 @@
       <c r="J8" s="16"/>
       <c r="K8" s="17"/>
       <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" s="15"/>
@@ -1724,6 +1742,7 @@
       <c r="J9" s="16"/>
       <c r="K9" s="17"/>
       <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" s="19"/>
@@ -1738,6 +1757,7 @@
       <c r="J10" s="20"/>
       <c r="K10" s="21"/>
       <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
